--- a/Router_문서.xlsx
+++ b/Router_문서.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gim/Desktop/3. 개인/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gim/Desktop/SimpleRouter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6790E67A-4AC7-1441-81DA-2F682F0AF338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779B46E8-E89C-1740-9F63-67AEF82F043E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{FE0313C9-1389-694E-8C54-D96CF653825F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{FE0313C9-1389-694E-8C54-D96CF653825F}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서" sheetId="1" r:id="rId1"/>
     <sheet name="테이블 명세서" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>루틴 생성 상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>루틴 생성 시 선택된 운동의 휴식시간과
 세트 개수를 설정할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,12 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-운동 조회 상세
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자가 사용한 루틴일 경우 날짜 표기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>R-EL-005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>운동 검색</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,18 +307,6 @@
   </si>
   <si>
     <t>운동이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R-EL-003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> R-EL-004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R-EL-006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -352,6 +325,61 @@
   </si>
   <si>
     <t>운동이 없을 경우 없음 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가눙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 운동 날짜 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운동 상세 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 운동을 진행했을 경우 평균 무게 및 주간 평균 실행 횟수, 무개당 평균 개수, 일당 평균 세트, 기간별 증가 무게를 조회할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아직 운동을 시작하지 않았습니다." 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-EL-003</t>
+  </si>
+  <si>
+    <t>R-EL-004</t>
+  </si>
+  <si>
+    <t>R-EL-005</t>
+  </si>
+  <si>
+    <t>R-EL-006</t>
+  </si>
+  <si>
+    <t>R-EL-007</t>
+  </si>
+  <si>
+    <t>루틴의 포함된 운동 휴식, 세트 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루틴의 포함된 운동 메모 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루틴 생성 시 선택한 운동의 특이사항을 메모할 수 있게 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 메모 특이점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모를 올리지 않았을 경우 메모 기능을 볼 수 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,66 +527,63 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,44 +899,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D34E86-8EAA-7D46-89F9-EE1451A51603}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="42" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="10" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="2"/>
-    <col min="6" max="6" width="35.5703125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="33.140625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" style="11" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" style="2"/>
-    <col min="10" max="10" width="17.85546875" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="3"/>
+    <col min="10" max="10" width="17.85546875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="42" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" ht="42" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -924,409 +948,473 @@
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="42" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="42" customHeight="1">
+      <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="B4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="42" customHeight="1">
-      <c r="A4" s="16" t="s">
+      <c r="I4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="42" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="42" customHeight="1">
+      <c r="A6" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="B6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" ht="54" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="54" customHeight="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="54" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="42" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="7" t="s">
+      <c r="F10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="42" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" ht="42" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" ht="42" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" ht="42" customHeight="1">
+      <c r="A13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" ht="42" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="52" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="52" customHeight="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" ht="42" customHeight="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="F17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" ht="42" customHeight="1">
-      <c r="A6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" ht="42" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="7" t="s">
+      <c r="F18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="1:10" ht="54" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" ht="42" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="7" t="s">
+      <c r="F19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" ht="42" customHeight="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="54" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="42" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="13"/>
-    </row>
-    <row r="10" spans="1:10" ht="42" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="1:10" ht="42" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:10" ht="42" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" ht="42" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="42" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" ht="42" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" ht="42" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" ht="42" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="13"/>
+      <c r="J20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
